--- a/DbLayouts/XX-系統/TxDataLog.xlsx
+++ b/DbLayouts/XX-系統/TxDataLog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo % ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate Desc</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1382,7 +1386,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1467,7 +1471,7 @@
         <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1478,7 +1482,7 @@
         <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1489,7 +1493,7 @@
         <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1500,7 +1504,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
